--- a/Database/Catcher.xlsx
+++ b/Database/Catcher.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="30 - 8" sheetId="1" r:id="rId1"/>
     <sheet name="1 - 9" sheetId="2" r:id="rId2"/>
+    <sheet name="3 - 9" sheetId="3" r:id="rId3"/>
+    <sheet name="4 - 9" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -77,6 +79,36 @@
     <t>Unnamed: 4.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 3.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 4.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 3.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 4.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>Hora</t>
   </si>
   <si>
@@ -102,6 +134,42 @@
   </si>
   <si>
     <t>10:56</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>2:8</t>
+  </si>
+  <si>
+    <t>3:9</t>
+  </si>
+  <si>
+    <t>3:59</t>
+  </si>
+  <si>
+    <t>4:55</t>
+  </si>
+  <si>
+    <t>5:54</t>
+  </si>
+  <si>
+    <t>6:52</t>
+  </si>
+  <si>
+    <t>7:57</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>21:7</t>
+  </si>
+  <si>
+    <t>10:22</t>
   </si>
 </sst>
 </file>
@@ -459,195 +527,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X9"/>
+  <dimension ref="F1:AM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="6:39">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="U2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="U4" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V4" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="U5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="U6" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="U7" t="s">
-        <v>26</v>
-      </c>
-      <c r="V7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="U8" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V8" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="U9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
+      <c r="AH1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="6:39">
+      <c r="AJ2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="6:39">
+      <c r="AJ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="6:39">
+      <c r="AJ4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="6:39">
+      <c r="AJ5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="6:39">
+      <c r="AJ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="6:39">
+      <c r="AJ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="6:39">
+      <c r="AJ8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="6:39">
+      <c r="AJ9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>0</v>
       </c>
     </row>
@@ -658,37 +756,501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="F1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="6:19">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="6:19">
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="6:19">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="6:19">
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="6:19">
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="6:19">
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="6:19">
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="6:19">
+      <c r="P6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="6:19">
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="6:19">
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="6:19">
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="6:19">
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="6:19">
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:19">
+      <c r="P12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="6:19">
+      <c r="P13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="6:19">
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="6:19">
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="6:19">
+      <c r="P16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="16:19">
+      <c r="P17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="16:19">
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="16:19">
+      <c r="P19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="16:19">
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="16:19">
+      <c r="P21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="16:19">
+      <c r="P22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="16:19">
+      <c r="P23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="16:19">
+      <c r="P24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="6:9">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="6:9">
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="6:9">
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
